--- a/T表/T0.xlsx
+++ b/T表/T0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C862B3F-98CE-4877-96BC-3073D800FD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F80E0F0-C205-434E-B232-D78C731D9A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="252" windowWidth="23256" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </si>
   <si>
     <r>
-      <t>A20</t>
+      <t>管实20</t>
     </r>
     <r>
       <rPr>
@@ -44,39 +44,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A1901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1902</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1902</t>
+    <t>管工2001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管工2002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管工2003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管工2004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管实1901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信管1901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信管1902</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流1901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流1902</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
